--- a/biology/Zoologie/Ardeadoris/Ardeadoris.xlsx
+++ b/biology/Zoologie/Ardeadoris/Ardeadoris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ardeadoris est un genre de nudibranches de la famille des Chromodorididae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (18 septembre 2018)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (18 septembre 2018) :
 Ardeadoris angustolutea (Rudman, 1990)
 Ardeadoris averni (Rudman, 1985)
 Ardeadoris carlsoni (Rudman, 1986)
@@ -554,9 +568,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Rudman, W. B. 1984. The Chromodorididae (Opisthobranchia: Mollusca) of the Indo-West Pacific: a review of the genera. Zoological Journal of the Linnean Society, 81(2): 115-273. [163].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Rudman, W. B. 1984. The Chromodorididae (Opisthobranchia: Mollusca) of the Indo-West Pacific: a review of the genera. Zoological Journal of the Linnean Society, 81(2): 115-273. .</t>
         </is>
       </c>
     </row>
@@ -584,10 +600,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Ardeadoris a été érigé par le zoologiste australien William B. Rudman en 1984[2] avec pour espèce type Ardeadoris egretta[2],[3]
-Des études de Phylogénétique moléculaire plus récentes indiquent que la distinction entre le genre Ardeadoris et le genre Glossodoris n'est pas évidente[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Ardeadoris a été érigé par le zoologiste australien William B. Rudman en 1984 avec pour espèce type Ardeadoris egretta,
+Des études de Phylogénétique moléculaire plus récentes indiquent que la distinction entre le genre Ardeadoris et le genre Glossodoris n'est pas évidente.
 </t>
         </is>
       </c>
